--- a/biology/Zoologie/Andricus_coriarius/Andricus_coriarius.xlsx
+++ b/biology/Zoologie/Andricus_coriarius/Andricus_coriarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andricus coriarius est une espèce d'insectes hyménoptères de la famille des Cynipidae.
 Les femelles agames (ou parthénogénétiques) de ce petit insecte provoquent par leurs piqûres la formation de galles brunes, épineuses, visibles en automne sur diverses espèces de chênes dont le chêne pubescent et le chêne chevelu.
